--- a/experiments/RyskinEtAl/2_production/shared/stimuli_creation/list2_production.xlsx
+++ b/experiments/RyskinEtAl/2_production/shared/stimuli_creation/list2_production.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stefanpophristic/Desktop/Repos/eyetracking_replications/experiments/RyskinEtAl/2_production/shared/stimuli_creation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC941C62-9D15-7F44-9AA7-BF11ACE3A845}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48E981F-41FE-474E-B48E-84A781C46202}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="440" windowWidth="28040" windowHeight="17060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-40120" yWindow="440" windowWidth="37100" windowHeight="21160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list2_production" sheetId="1" r:id="rId1"/>
@@ -5378,14 +5378,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="84" workbookViewId="0">
-      <selection activeCell="W128" sqref="W128"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:Z301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" customWidth="1"/>
+    <col min="11" max="12" width="10.83203125" customWidth="1"/>
+    <col min="14" max="18" width="10.83203125" customWidth="1"/>
+    <col min="19" max="19" width="15.5" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" customWidth="1"/>
+    <col min="21" max="21" width="4.6640625" customWidth="1"/>
+    <col min="22" max="22" width="15.5" customWidth="1"/>
+    <col min="23" max="23" width="16.33203125" customWidth="1"/>
+    <col min="24" max="24" width="10.83203125" customWidth="1"/>
+    <col min="25" max="25" width="2.83203125" customWidth="1"/>
+    <col min="26" max="26" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
@@ -5524,7 +5536,7 @@
         <v>13</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>15</v>
@@ -5536,7 +5548,7 @@
         <v>16</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>1424</v>
@@ -5604,7 +5616,7 @@
         <v>13</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>20</v>
@@ -5613,7 +5625,7 @@
         <v>20</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>22</v>
@@ -5684,7 +5696,7 @@
         <v>13</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="T4" s="2" t="s">
         <v>25</v>
@@ -5696,7 +5708,7 @@
         <v>26</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="X4" s="2" t="s">
         <v>1424</v>
@@ -5764,7 +5776,7 @@
         <v>13</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T5" s="2" t="s">
         <v>30</v>
@@ -5773,7 +5785,7 @@
         <v>30</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>32</v>
@@ -5844,7 +5856,7 @@
         <v>13</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T6" s="2" t="s">
         <v>35</v>
@@ -5856,7 +5868,7 @@
         <v>36</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="X6" s="2" t="s">
         <v>1424</v>
@@ -5924,7 +5936,7 @@
         <v>13</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>40</v>
@@ -5933,7 +5945,7 @@
         <v>40</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>42</v>
@@ -6004,7 +6016,7 @@
         <v>13</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T8" s="2" t="s">
         <v>45</v>
@@ -6016,7 +6028,7 @@
         <v>46</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="X8" s="2" t="s">
         <v>1424</v>
@@ -6084,7 +6096,7 @@
         <v>13</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T9" s="2" t="s">
         <v>50</v>
@@ -6093,7 +6105,7 @@
         <v>50</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>52</v>
@@ -6164,7 +6176,7 @@
         <v>13</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T10" s="2" t="s">
         <v>55</v>
@@ -6176,7 +6188,7 @@
         <v>56</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="X10" s="2" t="s">
         <v>1424</v>
@@ -6244,7 +6256,7 @@
         <v>13</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="T11" s="2" t="s">
         <v>60</v>
@@ -6253,7 +6265,7 @@
         <v>60</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W11" s="2" t="s">
         <v>62</v>
@@ -6285,7 +6297,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>65</v>
@@ -6297,7 +6309,7 @@
         <v>66</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>1423</v>
@@ -6365,7 +6377,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>70</v>
@@ -6374,7 +6386,7 @@
         <v>70</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>72</v>
@@ -6445,7 +6457,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>75</v>
@@ -6454,7 +6466,7 @@
         <v>75</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>77</v>
@@ -6525,7 +6537,7 @@
         <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>80</v>
@@ -6537,7 +6549,7 @@
         <v>81</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>1423</v>
@@ -6605,7 +6617,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>85</v>
@@ -6614,7 +6626,7 @@
         <v>85</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>87</v>
@@ -6685,7 +6697,7 @@
         <v>13</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>90</v>
@@ -6697,7 +6709,7 @@
         <v>91</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>1423</v>
@@ -6765,7 +6777,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>95</v>
@@ -6774,7 +6786,7 @@
         <v>95</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>97</v>
@@ -6845,7 +6857,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>100</v>
@@ -6857,7 +6869,7 @@
         <v>101</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>1423</v>
@@ -6925,7 +6937,7 @@
         <v>13</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>105</v>
@@ -6934,7 +6946,7 @@
         <v>105</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>107</v>
@@ -7005,7 +7017,7 @@
         <v>13</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>110</v>
@@ -7017,7 +7029,7 @@
         <v>111</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>1423</v>
@@ -7124,7 +7136,7 @@
         <v>114</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="T22" s="5" t="s">
         <v>14</v>
@@ -7133,7 +7145,7 @@
         <v>14</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W22" s="5" t="s">
         <v>117</v>
@@ -7204,7 +7216,7 @@
         <v>114</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="T23" s="5" t="s">
         <v>19</v>
@@ -7216,7 +7228,7 @@
         <v>120</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="X23" s="5" t="s">
         <v>1424</v>
@@ -7284,7 +7296,7 @@
         <v>114</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="T24" s="5" t="s">
         <v>24</v>
@@ -7293,7 +7305,7 @@
         <v>24</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W24" s="5" t="s">
         <v>125</v>
@@ -7364,7 +7376,7 @@
         <v>114</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="T25" s="5" t="s">
         <v>29</v>
@@ -7376,7 +7388,7 @@
         <v>128</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="X25" s="5" t="s">
         <v>1424</v>
@@ -7444,7 +7456,7 @@
         <v>114</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="T26" s="5" t="s">
         <v>34</v>
@@ -7453,7 +7465,7 @@
         <v>34</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="W26" s="5" t="s">
         <v>133</v>
@@ -7524,7 +7536,7 @@
         <v>114</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="T27" s="5" t="s">
         <v>39</v>
@@ -7536,7 +7548,7 @@
         <v>136</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="X27" s="5" t="s">
         <v>1424</v>
@@ -7604,7 +7616,7 @@
         <v>114</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="T28" s="5" t="s">
         <v>44</v>
@@ -7613,7 +7625,7 @@
         <v>44</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="W28" s="5" t="s">
         <v>141</v>
@@ -7684,7 +7696,7 @@
         <v>114</v>
       </c>
       <c r="S29" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="T29" s="5" t="s">
         <v>49</v>
@@ -7696,7 +7708,7 @@
         <v>144</v>
       </c>
       <c r="W29" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="X29" s="5" t="s">
         <v>1424</v>
@@ -7764,7 +7776,7 @@
         <v>114</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="T30" s="5" t="s">
         <v>54</v>
@@ -7773,7 +7785,7 @@
         <v>54</v>
       </c>
       <c r="V30" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="W30" s="5" t="s">
         <v>149</v>
@@ -7844,7 +7856,7 @@
         <v>114</v>
       </c>
       <c r="S31" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="T31" s="5" t="s">
         <v>59</v>
@@ -7856,7 +7868,7 @@
         <v>152</v>
       </c>
       <c r="W31" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="X31" s="5" t="s">
         <v>1424</v>
@@ -7885,7 +7897,7 @@
         <v>114</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>64</v>
@@ -7894,7 +7906,7 @@
         <v>64</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J32" s="5" t="s">
         <v>157</v>
@@ -7965,7 +7977,7 @@
         <v>114</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>69</v>
@@ -7977,7 +7989,7 @@
         <v>160</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>1423</v>
@@ -8045,7 +8057,7 @@
         <v>114</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>74</v>
@@ -8057,7 +8069,7 @@
         <v>164</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>1423</v>
@@ -8125,7 +8137,7 @@
         <v>114</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>79</v>
@@ -8134,7 +8146,7 @@
         <v>79</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J35" s="5" t="s">
         <v>169</v>
@@ -8205,7 +8217,7 @@
         <v>114</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>84</v>
@@ -8217,7 +8229,7 @@
         <v>172</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>1423</v>
@@ -8285,7 +8297,7 @@
         <v>114</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>89</v>
@@ -8294,7 +8306,7 @@
         <v>89</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J37" s="5" t="s">
         <v>177</v>
@@ -8365,7 +8377,7 @@
         <v>114</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>94</v>
@@ -8377,7 +8389,7 @@
         <v>180</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>1423</v>
@@ -8445,7 +8457,7 @@
         <v>114</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>99</v>
@@ -8454,7 +8466,7 @@
         <v>99</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J39" s="5" t="s">
         <v>185</v>
@@ -8525,7 +8537,7 @@
         <v>114</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>104</v>
@@ -8537,7 +8549,7 @@
         <v>188</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>1423</v>
@@ -8605,7 +8617,7 @@
         <v>114</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>109</v>
@@ -8614,7 +8626,7 @@
         <v>109</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J41" s="5" t="s">
         <v>193</v>
@@ -8724,7 +8736,7 @@
         <v>13</v>
       </c>
       <c r="S42" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="T42" s="7" t="s">
         <v>197</v>
@@ -8733,7 +8745,7 @@
         <v>198</v>
       </c>
       <c r="V42" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="W42" s="7" t="s">
         <v>200</v>
@@ -8804,7 +8816,7 @@
         <v>13</v>
       </c>
       <c r="S43" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="T43" s="7" t="s">
         <v>203</v>
@@ -8816,7 +8828,7 @@
         <v>205</v>
       </c>
       <c r="W43" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="X43" s="7" t="s">
         <v>1424</v>
@@ -8884,7 +8896,7 @@
         <v>13</v>
       </c>
       <c r="S44" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="T44" s="7" t="s">
         <v>209</v>
@@ -8893,7 +8905,7 @@
         <v>210</v>
       </c>
       <c r="V44" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="W44" s="7" t="s">
         <v>212</v>
@@ -8964,7 +8976,7 @@
         <v>13</v>
       </c>
       <c r="S45" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="T45" s="7" t="s">
         <v>215</v>
@@ -8976,7 +8988,7 @@
         <v>217</v>
       </c>
       <c r="W45" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="X45" s="7" t="s">
         <v>1424</v>
@@ -9044,7 +9056,7 @@
         <v>13</v>
       </c>
       <c r="S46" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="T46" s="7" t="s">
         <v>221</v>
@@ -9053,7 +9065,7 @@
         <v>222</v>
       </c>
       <c r="V46" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="W46" s="7" t="s">
         <v>224</v>
@@ -9124,7 +9136,7 @@
         <v>13</v>
       </c>
       <c r="S47" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="T47" s="7" t="s">
         <v>227</v>
@@ -9136,7 +9148,7 @@
         <v>229</v>
       </c>
       <c r="W47" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="X47" s="7" t="s">
         <v>1424</v>
@@ -9204,7 +9216,7 @@
         <v>13</v>
       </c>
       <c r="S48" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="T48" s="7" t="s">
         <v>233</v>
@@ -9213,7 +9225,7 @@
         <v>234</v>
       </c>
       <c r="V48" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="W48" s="7" t="s">
         <v>236</v>
@@ -9284,7 +9296,7 @@
         <v>13</v>
       </c>
       <c r="S49" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="T49" s="7" t="s">
         <v>239</v>
@@ -9296,7 +9308,7 @@
         <v>241</v>
       </c>
       <c r="W49" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="X49" s="7" t="s">
         <v>1424</v>
@@ -9364,7 +9376,7 @@
         <v>13</v>
       </c>
       <c r="S50" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="T50" s="7" t="s">
         <v>245</v>
@@ -9373,7 +9385,7 @@
         <v>246</v>
       </c>
       <c r="V50" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="W50" s="7" t="s">
         <v>248</v>
@@ -9444,7 +9456,7 @@
         <v>13</v>
       </c>
       <c r="S51" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="T51" s="7" t="s">
         <v>251</v>
@@ -9456,7 +9468,7 @@
         <v>253</v>
       </c>
       <c r="W51" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="X51" s="7" t="s">
         <v>1424</v>
@@ -9524,7 +9536,7 @@
         <v>13</v>
       </c>
       <c r="S52" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="T52" s="7" t="s">
         <v>257</v>
@@ -9533,7 +9545,7 @@
         <v>258</v>
       </c>
       <c r="V52" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="W52" s="7" t="s">
         <v>260</v>
@@ -9604,7 +9616,7 @@
         <v>13</v>
       </c>
       <c r="S53" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="T53" s="7" t="s">
         <v>263</v>
@@ -9616,7 +9628,7 @@
         <v>265</v>
       </c>
       <c r="W53" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="X53" s="7" t="s">
         <v>1424</v>
@@ -9684,7 +9696,7 @@
         <v>13</v>
       </c>
       <c r="S54" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="T54" s="7" t="s">
         <v>269</v>
@@ -9693,7 +9705,7 @@
         <v>270</v>
       </c>
       <c r="V54" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="W54" s="7" t="s">
         <v>272</v>
@@ -9764,7 +9776,7 @@
         <v>13</v>
       </c>
       <c r="S55" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="T55" s="7" t="s">
         <v>275</v>
@@ -9776,7 +9788,7 @@
         <v>277</v>
       </c>
       <c r="W55" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="X55" s="7" t="s">
         <v>1424</v>
@@ -9844,7 +9856,7 @@
         <v>13</v>
       </c>
       <c r="S56" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="T56" s="7" t="s">
         <v>281</v>
@@ -9853,7 +9865,7 @@
         <v>282</v>
       </c>
       <c r="V56" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="W56" s="7" t="s">
         <v>284</v>
@@ -9924,7 +9936,7 @@
         <v>13</v>
       </c>
       <c r="S57" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="T57" s="7" t="s">
         <v>287</v>
@@ -9936,7 +9948,7 @@
         <v>289</v>
       </c>
       <c r="W57" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="X57" s="7" t="s">
         <v>1424</v>
@@ -10004,7 +10016,7 @@
         <v>13</v>
       </c>
       <c r="S58" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="T58" s="7" t="s">
         <v>293</v>
@@ -10013,7 +10025,7 @@
         <v>294</v>
       </c>
       <c r="V58" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="W58" s="7" t="s">
         <v>296</v>
@@ -10084,7 +10096,7 @@
         <v>13</v>
       </c>
       <c r="S59" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="T59" s="7" t="s">
         <v>299</v>
@@ -10096,7 +10108,7 @@
         <v>301</v>
       </c>
       <c r="W59" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="X59" s="7" t="s">
         <v>1424</v>
@@ -10164,7 +10176,7 @@
         <v>13</v>
       </c>
       <c r="S60" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="T60" s="7" t="s">
         <v>305</v>
@@ -10173,7 +10185,7 @@
         <v>306</v>
       </c>
       <c r="V60" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="W60" s="7" t="s">
         <v>308</v>
@@ -10244,7 +10256,7 @@
         <v>13</v>
       </c>
       <c r="S61" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="T61" s="7" t="s">
         <v>311</v>
@@ -10256,7 +10268,7 @@
         <v>313</v>
       </c>
       <c r="W61" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="X61" s="7" t="s">
         <v>1424</v>
@@ -10285,7 +10297,7 @@
         <v>13</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>317</v>
@@ -10294,7 +10306,7 @@
         <v>318</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="J62" s="7" t="s">
         <v>320</v>
@@ -10365,7 +10377,7 @@
         <v>13</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>323</v>
@@ -10377,7 +10389,7 @@
         <v>325</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="K63" s="7" t="s">
         <v>1423</v>
@@ -10445,7 +10457,7 @@
         <v>13</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>329</v>
@@ -10454,7 +10466,7 @@
         <v>330</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="J64" s="7" t="s">
         <v>332</v>
@@ -10525,7 +10537,7 @@
         <v>13</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>335</v>
@@ -10537,7 +10549,7 @@
         <v>337</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>1423</v>
@@ -10605,7 +10617,7 @@
         <v>13</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>341</v>
@@ -10614,7 +10626,7 @@
         <v>342</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="J66" s="7" t="s">
         <v>344</v>
@@ -10685,7 +10697,7 @@
         <v>13</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>347</v>
@@ -10697,7 +10709,7 @@
         <v>349</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="K67" s="7" t="s">
         <v>1423</v>
@@ -10765,7 +10777,7 @@
         <v>13</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="G68" s="7" t="s">
         <v>353</v>
@@ -10774,7 +10786,7 @@
         <v>354</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="J68" s="7" t="s">
         <v>356</v>
@@ -10845,7 +10857,7 @@
         <v>13</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="G69" s="7" t="s">
         <v>359</v>
@@ -10857,7 +10869,7 @@
         <v>361</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="K69" s="7" t="s">
         <v>1423</v>
@@ -10925,7 +10937,7 @@
         <v>13</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="G70" s="7" t="s">
         <v>365</v>
@@ -10934,7 +10946,7 @@
         <v>366</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="J70" s="7" t="s">
         <v>368</v>
@@ -11005,7 +11017,7 @@
         <v>13</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>371</v>
@@ -11017,7 +11029,7 @@
         <v>373</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="K71" s="7" t="s">
         <v>1423</v>
@@ -11085,7 +11097,7 @@
         <v>13</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>377</v>
@@ -11094,7 +11106,7 @@
         <v>378</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="J72" s="7" t="s">
         <v>380</v>
@@ -11165,7 +11177,7 @@
         <v>13</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="G73" s="7" t="s">
         <v>383</v>
@@ -11177,7 +11189,7 @@
         <v>385</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="K73" s="7" t="s">
         <v>1423</v>
@@ -11245,7 +11257,7 @@
         <v>13</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="G74" s="7" t="s">
         <v>389</v>
@@ -11254,7 +11266,7 @@
         <v>390</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="J74" s="7" t="s">
         <v>392</v>
@@ -11325,7 +11337,7 @@
         <v>13</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>395</v>
@@ -11337,7 +11349,7 @@
         <v>397</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="K75" s="7" t="s">
         <v>1423</v>
@@ -11405,7 +11417,7 @@
         <v>13</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>401</v>
@@ -11414,7 +11426,7 @@
         <v>402</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="J76" s="7" t="s">
         <v>404</v>
@@ -11485,7 +11497,7 @@
         <v>13</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="G77" s="7" t="s">
         <v>407</v>
@@ -11497,7 +11509,7 @@
         <v>409</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="K77" s="7" t="s">
         <v>1423</v>
@@ -11565,7 +11577,7 @@
         <v>13</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="G78" s="7" t="s">
         <v>413</v>
@@ -11574,7 +11586,7 @@
         <v>414</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="J78" s="7" t="s">
         <v>416</v>
@@ -11645,7 +11657,7 @@
         <v>13</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="G79" s="7" t="s">
         <v>419</v>
@@ -11657,7 +11669,7 @@
         <v>421</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="K79" s="7" t="s">
         <v>1423</v>
@@ -11725,7 +11737,7 @@
         <v>13</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="G80" s="7" t="s">
         <v>425</v>
@@ -11734,7 +11746,7 @@
         <v>426</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="J80" s="7" t="s">
         <v>428</v>
@@ -11805,7 +11817,7 @@
         <v>13</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="G81" s="7" t="s">
         <v>431</v>
@@ -11817,7 +11829,7 @@
         <v>433</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="K81" s="7" t="s">
         <v>1423</v>
@@ -11924,7 +11936,7 @@
         <v>114</v>
       </c>
       <c r="S82" s="9" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="T82" s="9" t="s">
         <v>196</v>
@@ -11936,7 +11948,7 @@
         <v>438</v>
       </c>
       <c r="W82" s="9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="X82" s="9" t="s">
         <v>1424</v>
@@ -12004,7 +12016,7 @@
         <v>114</v>
       </c>
       <c r="S83" s="9" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="T83" s="9" t="s">
         <v>202</v>
@@ -12013,7 +12025,7 @@
         <v>442</v>
       </c>
       <c r="V83" s="9" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="W83" s="9" t="s">
         <v>444</v>
@@ -12084,7 +12096,7 @@
         <v>114</v>
       </c>
       <c r="S84" s="9" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="T84" s="9" t="s">
         <v>208</v>
@@ -12096,7 +12108,7 @@
         <v>448</v>
       </c>
       <c r="W84" s="9" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="X84" s="9" t="s">
         <v>1424</v>
@@ -12164,7 +12176,7 @@
         <v>114</v>
       </c>
       <c r="S85" s="9" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="T85" s="9" t="s">
         <v>214</v>
@@ -12173,7 +12185,7 @@
         <v>452</v>
       </c>
       <c r="V85" s="9" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="W85" s="9" t="s">
         <v>454</v>
@@ -12244,7 +12256,7 @@
         <v>114</v>
       </c>
       <c r="S86" s="9" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="T86" s="9" t="s">
         <v>220</v>
@@ -12256,7 +12268,7 @@
         <v>458</v>
       </c>
       <c r="W86" s="9" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="X86" s="9" t="s">
         <v>1424</v>
@@ -12324,7 +12336,7 @@
         <v>114</v>
       </c>
       <c r="S87" s="9" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="T87" s="9" t="s">
         <v>226</v>
@@ -12333,7 +12345,7 @@
         <v>462</v>
       </c>
       <c r="V87" s="9" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="W87" s="9" t="s">
         <v>464</v>
@@ -12404,7 +12416,7 @@
         <v>114</v>
       </c>
       <c r="S88" s="9" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="T88" s="9" t="s">
         <v>232</v>
@@ -12416,7 +12428,7 @@
         <v>468</v>
       </c>
       <c r="W88" s="9" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="X88" s="9" t="s">
         <v>1424</v>
@@ -12484,7 +12496,7 @@
         <v>114</v>
       </c>
       <c r="S89" s="9" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="T89" s="9" t="s">
         <v>238</v>
@@ -12493,7 +12505,7 @@
         <v>472</v>
       </c>
       <c r="V89" s="9" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="W89" s="9" t="s">
         <v>474</v>
@@ -12564,7 +12576,7 @@
         <v>114</v>
       </c>
       <c r="S90" s="9" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="T90" s="9" t="s">
         <v>244</v>
@@ -12576,7 +12588,7 @@
         <v>478</v>
       </c>
       <c r="W90" s="9" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="X90" s="9" t="s">
         <v>1424</v>
@@ -12644,7 +12656,7 @@
         <v>114</v>
       </c>
       <c r="S91" s="9" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="T91" s="9" t="s">
         <v>250</v>
@@ -12653,7 +12665,7 @@
         <v>482</v>
       </c>
       <c r="V91" s="9" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="W91" s="9" t="s">
         <v>484</v>
@@ -12724,7 +12736,7 @@
         <v>114</v>
       </c>
       <c r="S92" s="9" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="T92" s="9" t="s">
         <v>256</v>
@@ -12736,7 +12748,7 @@
         <v>488</v>
       </c>
       <c r="W92" s="9" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="X92" s="9" t="s">
         <v>1424</v>
@@ -12804,7 +12816,7 @@
         <v>114</v>
       </c>
       <c r="S93" s="9" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="T93" s="9" t="s">
         <v>262</v>
@@ -12813,7 +12825,7 @@
         <v>492</v>
       </c>
       <c r="V93" s="9" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="W93" s="9" t="s">
         <v>494</v>
@@ -12884,7 +12896,7 @@
         <v>114</v>
       </c>
       <c r="S94" s="9" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="T94" s="9" t="s">
         <v>268</v>
@@ -12896,7 +12908,7 @@
         <v>498</v>
       </c>
       <c r="W94" s="9" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="X94" s="9" t="s">
         <v>1424</v>
@@ -12964,7 +12976,7 @@
         <v>114</v>
       </c>
       <c r="S95" s="9" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="T95" s="9" t="s">
         <v>274</v>
@@ -12973,7 +12985,7 @@
         <v>502</v>
       </c>
       <c r="V95" s="9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="W95" s="9" t="s">
         <v>504</v>
@@ -13044,7 +13056,7 @@
         <v>114</v>
       </c>
       <c r="S96" s="9" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="T96" s="9" t="s">
         <v>280</v>
@@ -13056,7 +13068,7 @@
         <v>508</v>
       </c>
       <c r="W96" s="9" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="X96" s="9" t="s">
         <v>1424</v>
@@ -13124,7 +13136,7 @@
         <v>114</v>
       </c>
       <c r="S97" s="9" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="T97" s="9" t="s">
         <v>286</v>
@@ -13133,7 +13145,7 @@
         <v>512</v>
       </c>
       <c r="V97" s="9" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="W97" s="9" t="s">
         <v>514</v>
@@ -13204,7 +13216,7 @@
         <v>114</v>
       </c>
       <c r="S98" s="9" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T98" s="9" t="s">
         <v>292</v>
@@ -13216,7 +13228,7 @@
         <v>518</v>
       </c>
       <c r="W98" s="9" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="X98" s="9" t="s">
         <v>1424</v>
@@ -13284,7 +13296,7 @@
         <v>114</v>
       </c>
       <c r="S99" s="9" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="T99" s="9" t="s">
         <v>298</v>
@@ -13293,7 +13305,7 @@
         <v>522</v>
       </c>
       <c r="V99" s="9" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="W99" s="9" t="s">
         <v>524</v>
@@ -13364,7 +13376,7 @@
         <v>114</v>
       </c>
       <c r="S100" s="9" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="T100" s="9" t="s">
         <v>304</v>
@@ -13376,7 +13388,7 @@
         <v>528</v>
       </c>
       <c r="W100" s="9" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="X100" s="9" t="s">
         <v>1424</v>
@@ -13444,7 +13456,7 @@
         <v>114</v>
       </c>
       <c r="S101" s="9" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="T101" s="9" t="s">
         <v>310</v>
@@ -13453,7 +13465,7 @@
         <v>532</v>
       </c>
       <c r="V101" s="9" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="W101" s="9" t="s">
         <v>534</v>
@@ -13485,7 +13497,7 @@
         <v>114</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="G102" s="9" t="s">
         <v>316</v>
@@ -13497,7 +13509,7 @@
         <v>538</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="K102" s="9" t="s">
         <v>1423</v>
@@ -13565,7 +13577,7 @@
         <v>114</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="G103" s="9" t="s">
         <v>322</v>
@@ -13574,7 +13586,7 @@
         <v>542</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J103" s="9" t="s">
         <v>544</v>
@@ -13645,7 +13657,7 @@
         <v>114</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="G104" s="9" t="s">
         <v>328</v>
@@ -13657,7 +13669,7 @@
         <v>548</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="K104" s="9" t="s">
         <v>1423</v>
@@ -13725,7 +13737,7 @@
         <v>114</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="G105" s="9" t="s">
         <v>334</v>
@@ -13734,7 +13746,7 @@
         <v>552</v>
       </c>
       <c r="I105" s="9" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J105" s="9" t="s">
         <v>554</v>
@@ -13805,7 +13817,7 @@
         <v>114</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="G106" s="9" t="s">
         <v>340</v>
@@ -13817,7 +13829,7 @@
         <v>558</v>
       </c>
       <c r="J106" s="9" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="K106" s="9" t="s">
         <v>1423</v>
@@ -13885,7 +13897,7 @@
         <v>114</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="G107" s="9" t="s">
         <v>346</v>
@@ -13894,7 +13906,7 @@
         <v>562</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="J107" s="9" t="s">
         <v>564</v>
@@ -13965,7 +13977,7 @@
         <v>114</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="G108" s="9" t="s">
         <v>352</v>
@@ -13977,7 +13989,7 @@
         <v>568</v>
       </c>
       <c r="J108" s="9" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="K108" s="9" t="s">
         <v>1423</v>
@@ -14045,7 +14057,7 @@
         <v>114</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="G109" s="9" t="s">
         <v>358</v>
@@ -14054,7 +14066,7 @@
         <v>572</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="J109" s="9" t="s">
         <v>574</v>
@@ -14125,7 +14137,7 @@
         <v>114</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="G110" s="9" t="s">
         <v>364</v>
@@ -14137,7 +14149,7 @@
         <v>578</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="K110" s="9" t="s">
         <v>1423</v>
@@ -14205,7 +14217,7 @@
         <v>114</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="G111" s="9" t="s">
         <v>370</v>
@@ -14214,7 +14226,7 @@
         <v>582</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J111" s="9" t="s">
         <v>584</v>
@@ -14285,7 +14297,7 @@
         <v>114</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="G112" s="9" t="s">
         <v>376</v>
@@ -14297,7 +14309,7 @@
         <v>588</v>
       </c>
       <c r="J112" s="9" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="K112" s="9" t="s">
         <v>1423</v>
@@ -14365,7 +14377,7 @@
         <v>114</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="G113" s="9" t="s">
         <v>382</v>
@@ -14374,7 +14386,7 @@
         <v>592</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="J113" s="9" t="s">
         <v>594</v>
@@ -14445,7 +14457,7 @@
         <v>114</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="G114" s="9" t="s">
         <v>388</v>
@@ -14457,7 +14469,7 @@
         <v>598</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="K114" s="9" t="s">
         <v>1423</v>
@@ -14525,7 +14537,7 @@
         <v>114</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="G115" s="9" t="s">
         <v>394</v>
@@ -14534,7 +14546,7 @@
         <v>602</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="J115" s="9" t="s">
         <v>604</v>
@@ -14605,7 +14617,7 @@
         <v>114</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="G116" s="9" t="s">
         <v>400</v>
@@ -14617,7 +14629,7 @@
         <v>608</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="K116" s="9" t="s">
         <v>1423</v>
@@ -14685,7 +14697,7 @@
         <v>114</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="G117" s="9" t="s">
         <v>406</v>
@@ -14694,7 +14706,7 @@
         <v>612</v>
       </c>
       <c r="I117" s="9" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="J117" s="9" t="s">
         <v>614</v>
@@ -14765,7 +14777,7 @@
         <v>114</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="G118" s="9" t="s">
         <v>412</v>
@@ -14777,7 +14789,7 @@
         <v>618</v>
       </c>
       <c r="J118" s="9" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="K118" s="9" t="s">
         <v>1423</v>
@@ -14845,7 +14857,7 @@
         <v>114</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="G119" s="9" t="s">
         <v>418</v>
@@ -14854,7 +14866,7 @@
         <v>622</v>
       </c>
       <c r="I119" s="9" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="J119" s="9" t="s">
         <v>624</v>
@@ -14925,7 +14937,7 @@
         <v>114</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="G120" s="9" t="s">
         <v>424</v>
@@ -14937,7 +14949,7 @@
         <v>628</v>
       </c>
       <c r="J120" s="9" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="K120" s="9" t="s">
         <v>1423</v>
@@ -15005,7 +15017,7 @@
         <v>114</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="G121" s="9" t="s">
         <v>430</v>
@@ -15014,7 +15026,7 @@
         <v>632</v>
       </c>
       <c r="I121" s="9" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="J121" s="9" t="s">
         <v>634</v>
